--- a/docs/rncp/certification_safyra_tracker.xlsx
+++ b/docs/rncp/certification_safyra_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\aureylz\RNCP40897-Novatics\docs\rncp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EFD3C-DA9F-4FBF-B78B-A768C6666453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1440F53F-7F8C-4C42-8C2D-B38099B67993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1662,6 +1662,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1673,9 +1676,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3431,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3484,7 +3484,7 @@
         <f>ROWS(Tableau5[Statut])</f>
         <v>36</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="110" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -3515,7 +3515,7 @@
         <f>COUNTIF(Tableau5[Statut],Config!A5)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="109"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3544,7 +3544,7 @@
         <f>COUNTIF(Tableau5[Statut],Config!A3)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3573,7 +3573,7 @@
         <f>COUNTIF(Tableau5[Statut],Config!A2)</f>
         <v>34</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="18" t="s">
         <v>17</v>
       </c>
@@ -3602,7 +3602,7 @@
         <f>COUNTIF(Tableau5[Statut],Config!A5)/ROWS(Tableau5[Statut])</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D6" s="109"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
@@ -3629,9 +3629,9 @@
       </c>
       <c r="B7" s="15">
         <f ca="1">_xlfn.DAYS("2026-01-15", TODAY())</f>
-        <v>42</v>
-      </c>
-      <c r="D7" s="109"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="110"/>
       <c r="E7" s="21" t="s">
         <v>19</v>
       </c>
@@ -3658,9 +3658,9 @@
       </c>
       <c r="B8" s="15">
         <f ca="1">_xlfn.DAYS("2026-06-15", TODAY())</f>
-        <v>193</v>
-      </c>
-      <c r="D8" s="109"/>
+        <v>190</v>
+      </c>
+      <c r="D8" s="110"/>
       <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="109"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="23" t="s">
         <v>21</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>22</v>
       </c>
@@ -3722,11 +3722,11 @@
       </c>
       <c r="J10" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23" t="s">
         <v>23</v>
       </c>
@@ -3744,11 +3744,11 @@
       </c>
       <c r="J11" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="25" t="s">
@@ -3768,11 +3768,11 @@
       </c>
       <c r="J12" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
@@ -3790,11 +3790,11 @@
       </c>
       <c r="J13" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="25" t="s">
         <v>27</v>
       </c>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="J14" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="27" t="s">
         <v>28</v>
       </c>
@@ -3834,11 +3834,11 @@
       </c>
       <c r="J15" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="110"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="27" t="s">
         <v>29</v>
       </c>
@@ -3856,11 +3856,11 @@
       </c>
       <c r="J16" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="110"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="27" t="s">
         <v>30</v>
       </c>
@@ -3878,11 +3878,11 @@
       </c>
       <c r="J17" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="29" t="s">
         <v>31</v>
       </c>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="J18" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="29" t="s">
         <v>32</v>
       </c>
@@ -3922,11 +3922,11 @@
       </c>
       <c r="J19" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="110"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="29" t="s">
         <v>33</v>
       </c>
@@ -3944,11 +3944,11 @@
       </c>
       <c r="J20" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="112" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -3968,11 +3968,11 @@
       </c>
       <c r="J21" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="111"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="31" t="s">
         <v>36</v>
       </c>
@@ -3990,11 +3990,11 @@
       </c>
       <c r="J22" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="111"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="31" t="s">
         <v>37</v>
       </c>
@@ -4012,11 +4012,11 @@
       </c>
       <c r="J23" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="111"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="33" t="s">
         <v>38</v>
       </c>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="J24" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="111"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="33" t="s">
         <v>39</v>
       </c>
@@ -4056,11 +4056,11 @@
       </c>
       <c r="J25" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="111"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="33" t="s">
         <v>40</v>
       </c>
@@ -4078,11 +4078,11 @@
       </c>
       <c r="J26" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="111"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="35" t="s">
         <v>41</v>
       </c>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="J27" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="111"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="35" t="s">
         <v>42</v>
       </c>
@@ -4122,11 +4122,11 @@
       </c>
       <c r="J28" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="113" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="37" t="s">
@@ -4146,11 +4146,11 @@
       </c>
       <c r="J29" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="112"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="37" t="s">
         <v>45</v>
       </c>
@@ -4168,11 +4168,11 @@
       </c>
       <c r="J30" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="112"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="37" t="s">
         <v>46</v>
       </c>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="J31" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="112"/>
+      <c r="D32" s="113"/>
       <c r="E32" s="39" t="s">
         <v>47</v>
       </c>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="J32" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="112"/>
+      <c r="D33" s="113"/>
       <c r="E33" s="39" t="s">
         <v>48</v>
       </c>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="J33" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="112"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="39" t="s">
         <v>49</v>
       </c>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="J34" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="112"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="41" t="s">
         <v>50</v>
       </c>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="J35" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="112"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="41" t="s">
         <v>51</v>
       </c>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="J36" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="112"/>
+      <c r="D37" s="113"/>
       <c r="E37" s="43" t="s">
         <v>52</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="J37" s="78">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4513,7 @@
   </sheetPr>
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4558,7 +4558,7 @@
       <c r="E3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="109" t="s">
         <v>239</v>
       </c>
     </row>
